--- a/reduce/Agency FY16 to FY20 RTF Reduction Targets and Results.xlsx
+++ b/reduce/Agency FY16 to FY20 RTF Reduction Targets and Results.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlooff\Desktop\Websites\mlooff Interim Website\InterimPerformance-Dot-Gov-2018\reduce\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="15120" windowHeight="7440" tabRatio="948"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" tabRatio="948"/>
   </bookViews>
   <sheets>
     <sheet name="Ag" sheetId="3" r:id="rId1"/>
@@ -33,7 +39,7 @@
     <sheet name="VA" sheetId="49" r:id="rId24"/>
     <sheet name="Govt-wide" sheetId="51" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -631,7 +637,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1365,7 +1371,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/reduce/Agency FY16 to FY20 RTF Reduction Targets and Results.xlsx
+++ b/reduce/Agency FY16 to FY20 RTF Reduction Targets and Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlooff\Desktop\Websites\mlooff Interim Website\InterimPerformance-Dot-Gov-2018\reduce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="fNESPxSaBXze5mnqh3byQReBa2oT5DjJYU+zyfp1VmKLrkKZSJiz9fJVXloOqEqX9eXE7pyC1xPaAg0y6QJe7g==" workbookSaltValue="b/6alogCOIHXZoUM/PJpYw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" tabRatio="948"/>
   </bookViews>
